--- a/eLearning/QR/webAddress.xlsx
+++ b/eLearning/QR/webAddress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eDataScience\ebook\QR Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estat\eLearning\QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FCBF4C-FD98-4007-9CCB-3E7CE12E2FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="2400" windowWidth="22950" windowHeight="15600"/>
+    <workbookView xWindow="30165" yWindow="270" windowWidth="22965" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>estatLecture</t>
   </si>
@@ -764,12 +757,18 @@
   </si>
   <si>
     <t>http://www.estat.me/estat/eStat/?json={"dataURL":"../Example/eBook/EX110102_AgeOfLibraryVisitor.csv","analysisVar":1,"graphNum":19}</t>
+  </si>
+  <si>
+    <t>EX080202_WageByGender.csv</t>
+  </si>
+  <si>
+    <t>http://www.estat.me/estat/eStat/?json={"dataURL":"../Example/eBook/EX080103_WageByGender.csv","analysisVar":2,"groupVars":[1],"graphNum":31}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -820,8 +819,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,14 +1131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1366,771 +1365,780 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
+        <v>244</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{F8D7961E-F258-4FA5-869E-615435136B0E}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>